--- a/Project_Ideas.xlsx
+++ b/Project_Ideas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Google Drive\Masters\Exercises\Semster1\Intro_to_AI\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Google Drive\Masters\Exercises\Semster1\Intro_to_AI\Project\git\AI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22116" windowHeight="9780"/>
+    <workbookView xWindow="3045" yWindow="0" windowWidth="22110" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Original Ideas" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>Aries</t>
   </si>
   <si>
-    <t>Dimitrios</t>
-  </si>
-  <si>
     <t>Sejal</t>
+  </si>
+  <si>
+    <t>Dimitris</t>
   </si>
 </sst>
 </file>
@@ -538,20 +538,20 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -574,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -601,7 +601,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>12</v>
@@ -622,7 +622,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -639,7 +639,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -656,7 +656,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -673,9 +673,9 @@
       <c r="N6" s="9"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>23</v>
@@ -698,7 +698,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
         <v>22</v>
@@ -719,7 +719,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -736,7 +736,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -753,7 +753,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -770,9 +770,9 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>19</v>
@@ -793,7 +793,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -810,7 +810,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -827,7 +827,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -844,7 +844,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,7 +869,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -886,7 +886,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -903,7 +903,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
